--- a/modifier.xlsx
+++ b/modifier.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intel\AppData\Local\Temp\a299671a-6fba-4e91-9824-3ce6ff019882\dav\content\modifier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AOC-DEV 2\AppData\Local\Temp\2c7e2dd3-5ebc-4e77-ba28-452f6317efa9\dav\content\modifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A327ED-034F-47B5-9601-6E3B912BF8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20550" yWindow="1215" windowWidth="26475" windowHeight="12960"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>AOC-DEV 2</author>
     <author>intelg4400@yahoo.com</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0">
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>product_id</t>
   </si>
@@ -183,16 +184,70 @@
     <t>[blue]weight=100,price=250;[black]price=24;</t>
   </si>
   <si>
-    <t>[tri color]colors=#A44A4A;[pash pash]image_url=https://cdn11.bigcommerce.com/s-t0676dlrio/product_images/attribute_value_images/348.preview.jpg?t=1628148574;[1 color]image_url=https://google.com</t>
-  </si>
-  <si>
-    <t>[red]product_id=120;[black]product_id=115</t>
+    <t>config</t>
+  </si>
+  <si>
+    <t>config_property</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>THIS IS TEXT</t>
+  </si>
+  <si>
+    <t>THIS AWESOME</t>
+  </si>
+  <si>
+    <t>numbers_only_text</t>
+  </si>
+  <si>
+    <t>THIS IS numbers only text</t>
+  </si>
+  <si>
+    <t>default_value=2;number_limited=true;number_lowest_value=1;number_highest_value=5;number_integers_only=true;number_limit_mode=range</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>this is date bro</t>
+  </si>
+  <si>
+    <t>default_value=THIS IS TEXT;text_characters_limited=false</t>
+  </si>
+  <si>
+    <t>default_value=THIS IS TEXST;text_characters_limited=true;text_min_length=5;text_max_length=25</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>[tri color]colors=#A44A4A;[2 color]colors=#DE2228;[pash pash]image_url=https://images.pexels.com/photos/220453/pexels-photo-220453.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=500;[1 color]image_url=https://images.pexels.com/photos/220453/pexels-photo-220453.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=500</t>
+  </si>
+  <si>
+    <t>[red]product_id=112;[black]product_id=115;[red]=product_id=120;[green]=product_id=121</t>
+  </si>
+  <si>
+    <t>product_list_adjusts_inventory=true;product_list_adjusts_pricing=true;product_list_shipping_calc=true</t>
+  </si>
+  <si>
+    <t>multi_line_text</t>
+  </si>
+  <si>
+    <t>this is multi text field</t>
+  </si>
+  <si>
+    <t>default_value=this is sample of \n new line \n text;text_characters_limited=true;text_min_length=1;text_max_length=50;text_lines_limited=true;text_max_lines=22</t>
+  </si>
+  <si>
+    <t>default_value=2021-08-25;date_limit_mode=range;date_limited=true;date_earliest_value=2021-08-23;date_latest_value=2021-08-28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,12 +270,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -235,11 +296,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,11 +615,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,11 +630,12 @@
     <col min="4" max="4" width="30.42578125" customWidth="1"/>
     <col min="5" max="5" width="44" customWidth="1"/>
     <col min="6" max="6" width="82.7109375" customWidth="1"/>
-    <col min="7" max="7" width="88.28515625" customWidth="1"/>
-    <col min="8" max="8" width="32.85546875" customWidth="1"/>
+    <col min="7" max="7" width="110.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="170.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -594,30 +657,36 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>114</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>114</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -635,70 +704,176 @@
         <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>112</v>
-      </c>
-      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>114</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="b">
+      <c r="C4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>114</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>114</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>114</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="b">
+      <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
-        <v>25</v>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/modifier.xlsx
+++ b/modifier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AOC-DEV 2\AppData\Local\Temp\2c7e2dd3-5ebc-4e77-ba28-452f6317efa9\dav\content\modifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A327ED-034F-47B5-9601-6E3B912BF8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5285C6-6B91-4C57-A26D-14B42D438A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>product_id</t>
   </si>
@@ -226,12 +226,6 @@
     <t>[tri color]colors=#A44A4A;[2 color]colors=#DE2228;[pash pash]image_url=https://images.pexels.com/photos/220453/pexels-photo-220453.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=500;[1 color]image_url=https://images.pexels.com/photos/220453/pexels-photo-220453.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=500</t>
   </si>
   <si>
-    <t>[red]product_id=112;[black]product_id=115;[red]=product_id=120;[green]=product_id=121</t>
-  </si>
-  <si>
-    <t>product_list_adjusts_inventory=true;product_list_adjusts_pricing=true;product_list_shipping_calc=true</t>
-  </si>
-  <si>
     <t>multi_line_text</t>
   </si>
   <si>
@@ -241,7 +235,31 @@
     <t>default_value=this is sample of \n new line \n text;text_characters_limited=true;text_min_length=1;text_max_length=50;text_lines_limited=true;text_max_lines=22</t>
   </si>
   <si>
-    <t>default_value=2021-08-25;date_limit_mode=range;date_limited=true;date_earliest_value=2021-08-23;date_latest_value=2021-08-28</t>
+    <t>default_value=2021-08-25T00:00:00+00:00;date_limit_mode=range;date_limited=true;date_earliest_value=2021-08-23T00:00:00+00:00;date_latest_value=2021-08-28T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>[red]product_id=112;[black]product_id=115;[blue]product_id=120;[green]product_id=121</t>
+  </si>
+  <si>
+    <t>product_list_adjusts_inventory=true;product_list_adjusts_pricing=true;product_list_shipping_calc=weight</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t>Add a $5 Donation</t>
+  </si>
+  <si>
+    <t>default_value=Yes;check_by_default=false;checkbox_label=Check for Donation</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>this is the hard and last part</t>
+  </si>
+  <si>
+    <t>file_types_mode=specific;file_types_supported=images,documents,other;file_types_other=psd,zip,tzip;file_max_size=50000</t>
   </si>
 </sst>
 </file>
@@ -279,12 +297,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -292,16 +310,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,42 +703,41 @@
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>114</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>37</v>
+      <c r="A3" s="2">
+        <v>114</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -712,19 +745,22 @@
         <v>114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -748,135 +784,183 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>114</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
+      <c r="A6" s="2">
+        <v>114</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>114</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="b">
+      <c r="A7" s="2">
+        <v>114</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>114</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="b">
+      <c r="A8" s="2">
+        <v>114</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>114</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>114</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>114</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>114</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>114</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>114</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="b">
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>114</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>114</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>42</v>
+      <c r="D13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I13">
+    <sortCondition descending="1" ref="B9:B13"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/modifier.xlsx
+++ b/modifier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AOC-DEV 2\AppData\Local\Temp\2c7e2dd3-5ebc-4e77-ba28-452f6317efa9\dav\content\modifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5285C6-6B91-4C57-A26D-14B42D438A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7D65E3-A7BF-4E60-B9DD-62241927F4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>AOC-DEV 2</author>
-    <author>intelg4400@yahoo.com</author>
   </authors>
   <commentList>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -81,36 +80,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>intelg4400@yahoo.com:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>product_id</t>
   </si>
@@ -127,63 +102,18 @@
     <t>label</t>
   </si>
   <si>
-    <t>dropdown</t>
-  </si>
-  <si>
-    <t>animals</t>
-  </si>
-  <si>
     <t>value_data</t>
   </si>
   <si>
     <t>rules</t>
   </si>
   <si>
-    <t>FLOWERS</t>
-  </si>
-  <si>
-    <t>dog;cat;pig+;horse;lion</t>
-  </si>
-  <si>
-    <t>sun_flower;rose;sampaguita+;petals;test</t>
-  </si>
-  <si>
-    <t>[test,petals]weight=100,price=250;[rose]price=62;[sun_flower]weight=25</t>
-  </si>
-  <si>
-    <t>[lion,cat]weight=100,price=-250;[pig]price=62;[dog]weight=25</t>
-  </si>
-  <si>
     <t>radio_buttons</t>
   </si>
   <si>
     <t>swatch</t>
   </si>
   <si>
-    <t>swatch bash bash</t>
-  </si>
-  <si>
-    <t>[tri color]price=22,weight=25;[2 color]price=250,weight=12;[pash pash]price=250</t>
-  </si>
-  <si>
-    <t>tri color;1 color;2 color+;pash pash</t>
-  </si>
-  <si>
-    <t>rectangles</t>
-  </si>
-  <si>
-    <t>product_list_with_images</t>
-  </si>
-  <si>
-    <t>THIS IS PICK LIST</t>
-  </si>
-  <si>
-    <t>blue;black+;red;green</t>
-  </si>
-  <si>
-    <t>[blue]weight=100,price=250;[black]price=24;</t>
-  </si>
-  <si>
     <t>config</t>
   </si>
   <si>
@@ -193,73 +123,28 @@
     <t>text</t>
   </si>
   <si>
-    <t>THIS IS TEXT</t>
-  </si>
-  <si>
-    <t>THIS AWESOME</t>
-  </si>
-  <si>
-    <t>numbers_only_text</t>
-  </si>
-  <si>
-    <t>THIS IS numbers only text</t>
-  </si>
-  <si>
-    <t>default_value=2;number_limited=true;number_lowest_value=1;number_highest_value=5;number_integers_only=true;number_limit_mode=range</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>this is date bro</t>
-  </si>
-  <si>
-    <t>default_value=THIS IS TEXT;text_characters_limited=false</t>
-  </si>
-  <si>
-    <t>default_value=THIS IS TEXST;text_characters_limited=true;text_min_length=5;text_max_length=25</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>[tri color]colors=#A44A4A;[2 color]colors=#DE2228;[pash pash]image_url=https://images.pexels.com/photos/220453/pexels-photo-220453.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=500;[1 color]image_url=https://images.pexels.com/photos/220453/pexels-photo-220453.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=1&amp;w=500</t>
-  </si>
-  <si>
-    <t>multi_line_text</t>
-  </si>
-  <si>
-    <t>this is multi text field</t>
-  </si>
-  <si>
-    <t>default_value=this is sample of \n new line \n text;text_characters_limited=true;text_min_length=1;text_max_length=50;text_lines_limited=true;text_max_lines=22</t>
-  </si>
-  <si>
-    <t>default_value=2021-08-25T00:00:00+00:00;date_limit_mode=range;date_limited=true;date_earliest_value=2021-08-23T00:00:00+00:00;date_latest_value=2021-08-28T00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>[red]product_id=112;[black]product_id=115;[blue]product_id=120;[green]product_id=121</t>
-  </si>
-  <si>
-    <t>product_list_adjusts_inventory=true;product_list_adjusts_pricing=true;product_list_shipping_calc=weight</t>
-  </si>
-  <si>
-    <t>checkbox</t>
-  </si>
-  <si>
-    <t>Add a $5 Donation</t>
-  </si>
-  <si>
-    <t>default_value=Yes;check_by_default=false;checkbox_label=Check for Donation</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>this is the hard and last part</t>
-  </si>
-  <si>
-    <t>file_types_mode=specific;file_types_supported=images,documents,other;file_types_other=psd,zip,tzip;file_max_size=50000</t>
+    <t>amazing swatch</t>
+  </si>
+  <si>
+    <t>[two color]price=45,weight=70</t>
+  </si>
+  <si>
+    <t>[one color]colors=#BABABA;[two color]colors=#CACACA,#2E2E2E</t>
+  </si>
+  <si>
+    <t>this is my radio button</t>
+  </si>
+  <si>
+    <t>my label text</t>
+  </si>
+  <si>
+    <t>donate_one;donate_two+;donate_three</t>
+  </si>
+  <si>
+    <t>one color;two color+</t>
+  </si>
+  <si>
+    <t>[donate_one,donate_three]price=45,weight=75;[donate_two]=price=200,weight=-200</t>
   </si>
 </sst>
 </file>
@@ -329,11 +214,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -650,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +551,7 @@
     <col min="9" max="9" width="170.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -686,281 +568,80 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>121</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>120</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>114</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>114</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="H3" t="b">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>119</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>114</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="b">
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>114</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>114</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>114</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>114</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>114</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>114</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>114</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>114</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>114</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>46</v>
-      </c>
+      <c r="I4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I13">
-    <sortCondition descending="1" ref="B9:B13"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/modifier.xlsx
+++ b/modifier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AOC-DEV 2\AppData\Local\Temp\2c7e2dd3-5ebc-4e77-ba28-452f6317efa9\dav\content\modifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7D65E3-A7BF-4E60-B9DD-62241927F4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53597599-A8B8-476A-A51C-A060E8FFBF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +582,7 @@
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
